--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2589056.607155465</v>
+        <v>2697207.700069758</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8994978.503186211</v>
+        <v>9001021.513773467</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>253.4361464794027</v>
       </c>
       <c r="F2" t="n">
-        <v>63.3186320549093</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>100.5261096075845</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,7 +876,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.41487146097512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>133.4498866325562</v>
+        <v>81.39729436674905</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>118.4626915143186</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.44811922207311</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>187.6522591728079</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>310.0296857152404</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>72.82894791404942</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>69.08839254414994</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>45.17596778974989</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.6227449987296</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>68.62151774815511</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.56327578339665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1910,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>26.12116916215743</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>172.5936784239535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620684</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>45.97180554614035</v>
       </c>
       <c r="U22" t="n">
-        <v>93.05052491174621</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>34.67929910923862</v>
+        <v>102.1656705247861</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>1.255571502168041</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>40.32853379926806</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>108.3106907504111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>208.2585798692299</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3202,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>45.36631724422328</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>133.5893686009541</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>19.88691958258357</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>74.53917159609216</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3963959210117</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>186.2017055182992</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.4564809702492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,7 +3912,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>91.66636605273423</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3949,22 +3951,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4147,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>90.48716302792783</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071336</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071336</v>
+        <v>1054.551232880758</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071336</v>
+        <v>696.2855342740072</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071336</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4325,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1441.151072944879</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193026</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507743</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2262.298126874724</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.8756322024072</v>
+        <v>451.6438489729786</v>
       </c>
       <c r="C4" t="n">
-        <v>346.8756322024072</v>
+        <v>451.6438489729786</v>
       </c>
       <c r="D4" t="n">
-        <v>346.8756322024072</v>
+        <v>301.5272095606429</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
         <v>199.9856847044969</v>
@@ -4480,13 +4482,13 @@
         <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4522,16 +4524,16 @@
         <v>1150.699034738196</v>
       </c>
       <c r="V4" t="n">
-        <v>896.0145465323095</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="W4" t="n">
-        <v>606.597376495349</v>
+        <v>861.2818647012357</v>
       </c>
       <c r="X4" t="n">
-        <v>378.6078255973316</v>
+        <v>633.2923138032183</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.8756322024072</v>
+        <v>633.2923138032183</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.040196257711</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="C5" t="n">
-        <v>826.0776793172992</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="D5" t="n">
-        <v>826.0776793172992</v>
+        <v>1163.744434193592</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872908</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.842255641215</v>
+        <v>2480.119839140813</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.842255641215</v>
+        <v>2226.538778404993</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.779368297644</v>
+        <v>1895.475891061422</v>
       </c>
       <c r="W5" t="n">
-        <v>1971.779368297644</v>
+        <v>1895.475891061422</v>
       </c>
       <c r="X5" t="n">
-        <v>1971.779368297644</v>
+        <v>1522.010132800342</v>
       </c>
       <c r="Y5" t="n">
-        <v>1581.640036321833</v>
+        <v>1522.010132800342</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145204</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>444.7476822882288</v>
+        <v>624.8936537153462</v>
       </c>
       <c r="C7" t="n">
-        <v>444.7476822882288</v>
+        <v>455.9574707874393</v>
       </c>
       <c r="D7" t="n">
-        <v>444.7476822882288</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E7" t="n">
-        <v>444.7476822882288</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232067</v>
+        <v>1034.531669443603</v>
       </c>
       <c r="W7" t="n">
-        <v>672.7372331862462</v>
+        <v>1034.531669443603</v>
       </c>
       <c r="X7" t="n">
-        <v>444.7476822882288</v>
+        <v>806.5421185455859</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.7476822882288</v>
+        <v>806.5421185455859</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1517.887535471216</v>
+        <v>1694.732133680699</v>
       </c>
       <c r="C8" t="n">
-        <v>1148.925018530804</v>
+        <v>1325.769616740288</v>
       </c>
       <c r="D8" t="n">
-        <v>790.659319924054</v>
+        <v>967.5039181335374</v>
       </c>
       <c r="E8" t="n">
-        <v>790.659319924054</v>
+        <v>777.9561815953475</v>
       </c>
       <c r="F8" t="n">
-        <v>379.6734151344464</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.487375535338</v>
+        <v>1694.732133680699</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1977.748514897737</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2224.931248730034</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>699.2355044562296</v>
+        <v>347.89877828689</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>347.89877828689</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>978.3293731586772</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>978.3293731586772</v>
       </c>
       <c r="X10" t="n">
-        <v>1101.676548429999</v>
+        <v>750.3398222606598</v>
       </c>
       <c r="Y10" t="n">
-        <v>880.8839692864693</v>
+        <v>529.5472431171297</v>
       </c>
     </row>
     <row r="11">
@@ -5030,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2334.285089135946</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2334.285089135946</v>
+        <v>2070.54992095362</v>
       </c>
       <c r="U13" t="n">
-        <v>2045.209862480144</v>
+        <v>1781.474694297818</v>
       </c>
       <c r="V13" t="n">
-        <v>1790.525374274257</v>
+        <v>1526.790206091931</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.108204237296</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5266,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.777212765616</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377091</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2310.602715440587</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2091.001250463528</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5509,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3093.254426444652</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>2924.318243516745</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>2774.20160410441</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>2626.288510522017</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>2479.398563024106</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2420.578064224546</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.9326143059</v>
+        <v>2237.723229879451</v>
       </c>
       <c r="T19" t="n">
-        <v>4221.331149328841</v>
+        <v>2018.121764902392</v>
       </c>
       <c r="U19" t="n">
-        <v>4221.331149328841</v>
+        <v>1729.046538246589</v>
       </c>
       <c r="V19" t="n">
-        <v>3966.646661122954</v>
+        <v>1474.362050040702</v>
       </c>
       <c r="W19" t="n">
-        <v>3677.229491085994</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X19" t="n">
-        <v>3449.239940187977</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y19" t="n">
-        <v>3274.902891274892</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,64 +5740,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2150.626378269244</v>
       </c>
       <c r="U22" t="n">
-        <v>1883.470651306724</v>
+        <v>1861.551151613442</v>
       </c>
       <c r="V22" t="n">
-        <v>1628.786163100837</v>
+        <v>1606.866663407555</v>
       </c>
       <c r="W22" t="n">
-        <v>1339.368993063877</v>
+        <v>1317.449493370594</v>
       </c>
       <c r="X22" t="n">
-        <v>1111.379442165859</v>
+        <v>1089.459942472577</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.379442165859</v>
+        <v>868.6673633290469</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K24" t="n">
-        <v>2231.588527385791</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L24" t="n">
-        <v>2726.91413360155</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M24" t="n">
-        <v>3324.292621228102</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>3951.890584782709</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>4503.800315021996</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3229.653730559302</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>3060.717547631396</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="D25" t="n">
-        <v>2910.60090821906</v>
+        <v>652.8121879835377</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>4149.50149546805</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>3860.084325431089</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>3632.094774533072</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>3411.302195389542</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>2233.355914590559</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>2381.981709809275</v>
       </c>
       <c r="L27" t="n">
-        <v>2913.946970978148</v>
+        <v>2877.307316025034</v>
       </c>
       <c r="M27" t="n">
-        <v>3511.3254586047</v>
+        <v>3474.685803651586</v>
       </c>
       <c r="N27" t="n">
-        <v>4138.923422159307</v>
+        <v>4102.283767206193</v>
       </c>
       <c r="O27" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3046.798896214207</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="C28" t="n">
-        <v>2877.8627132863</v>
+        <v>803.2707707770328</v>
       </c>
       <c r="D28" t="n">
-        <v>2877.8627132863</v>
+        <v>653.154131364697</v>
       </c>
       <c r="E28" t="n">
-        <v>2729.949619703907</v>
+        <v>505.2410377823039</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>358.3510902843935</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.229491085994</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.239940187977</v>
+        <v>1205.711814750803</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.447361044447</v>
+        <v>984.9192356072725</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>948.5505208511906</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="C31" t="n">
-        <v>779.6143379232838</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.981115722978</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>1578.981115722978</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>1350.99156482496</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>1130.19898568143</v>
+        <v>2949.802511644064</v>
       </c>
     </row>
     <row r="32">
@@ -6695,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,22 +6779,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>789.7592298206043</v>
+        <v>3079.453861511889</v>
       </c>
       <c r="C34" t="n">
-        <v>620.8230468926974</v>
+        <v>2910.517678583983</v>
       </c>
       <c r="D34" t="n">
-        <v>470.7064074803617</v>
+        <v>2760.401039171647</v>
       </c>
       <c r="E34" t="n">
-        <v>322.7933138979686</v>
+        <v>2612.487945589254</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>2465.597998091343</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>2465.597998091343</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2244.978623670083</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2025.377158693024</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U34" t="n">
-        <v>1736.301932037222</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V34" t="n">
-        <v>1481.617443831335</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="W34" t="n">
-        <v>1192.200273794374</v>
+        <v>3709.884456383676</v>
       </c>
       <c r="X34" t="n">
-        <v>1192.200273794374</v>
+        <v>3481.894905485659</v>
       </c>
       <c r="Y34" t="n">
-        <v>971.4076946508441</v>
+        <v>3261.102326342129</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6931,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,16 +6943,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
         <v>2319.799627685893</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3046.798896214207</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C37" t="n">
-        <v>3046.798896214207</v>
+        <v>2878.204656667458</v>
       </c>
       <c r="D37" t="n">
-        <v>2896.682256801871</v>
+        <v>2728.088017255123</v>
       </c>
       <c r="E37" t="n">
-        <v>2748.769163219478</v>
+        <v>2580.17492367273</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2580.17492367273</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2412.97882438761</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I37" t="n">
         <v>2337.686731866304</v>
@@ -7126,19 +7128,19 @@
         <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7256,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.2946447138411</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3584617859342</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2418223735984</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3287287912053</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4319.895787226933</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4030.820560571131</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3776.136072365244</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3486.718902328284</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3258.729351430266</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>3037.936772286736</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M42" t="n">
-        <v>3212.252935505192</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>3839.850899059799</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4391.760629299086</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>1024.063349920562</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>855.1271669926552</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>705.0105275803195</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>557.0974339979264</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>410.207486500016</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7597,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1652.96088724472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1424.971336346702</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.178757203172</v>
+        <v>1205.711814750802</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.079034721979</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>2253.988764961266</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>60.35797727397625</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>186.591198401904</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.95314511566572</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>211.0329012241559</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>199.7516311504069</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>135.8503182118947</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>25.78270532855865</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>112.4047682534895</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>40.25407754796423</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>45.9909749281413</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>171.4336447811479</v>
       </c>
       <c r="U22" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>111.7546635373305</v>
+        <v>44.26829212178309</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>144.1654765207632</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>125.1956044930008</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>10.32607348286487</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25092,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>94.92839560200061</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>47.43691740069048</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5341284403477</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>65.75554125013173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>15.02465210191957</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>31.20374480898909</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.37549921168812</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73.85777223953461</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26035,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>196.0358353086632</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>786699.0649862048</v>
+        <v>793235.1852373828</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.415891427</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520054</v>
-      </c>
       <c r="G2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="O2" t="n">
         <v>645717.2797520048</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520051</v>
-      </c>
       <c r="P2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099828</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307095</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719669</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683970.0036710817</v>
+        <v>-683970.0036710816</v>
       </c>
       <c r="C6" t="n">
-        <v>430781.7799048382</v>
+        <v>430781.7799048381</v>
       </c>
       <c r="D6" t="n">
-        <v>269577.9316566245</v>
+        <v>430781.779904838</v>
       </c>
       <c r="E6" t="n">
-        <v>211674.919659023</v>
+        <v>29601.93984183209</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663786</v>
+        <v>537087.3814663779</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.381466378</v>
+        <v>537087.3814663785</v>
       </c>
       <c r="H6" t="n">
         <v>537087.3814663782</v>
       </c>
       <c r="I6" t="n">
+        <v>537087.3814663779</v>
+      </c>
+      <c r="J6" t="n">
+        <v>369482.2036563955</v>
+      </c>
+      <c r="K6" t="n">
         <v>537087.3814663782</v>
       </c>
-      <c r="J6" t="n">
-        <v>369482.2036563959</v>
-      </c>
-      <c r="K6" t="n">
-        <v>537087.3814663785</v>
-      </c>
       <c r="L6" t="n">
-        <v>488793.4114581874</v>
+        <v>537087.3814663781</v>
       </c>
       <c r="M6" t="n">
-        <v>452032.3535308667</v>
+        <v>404480.0877374514</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663785</v>
+        <v>537087.3814663781</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.3814663783</v>
+        <v>537087.381466378</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663778</v>
+        <v>537087.3814663781</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26981,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>128.494223592859</v>
       </c>
       <c r="F2" t="n">
-        <v>343.5574136868021</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>45.90785303898467</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27594,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.1697818911197</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>73.20829834767753</v>
+        <v>125.2608906134847</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>26.95835650861262</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>238.6895241017549</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>194.2781108994538</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>100.8920399382131</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>94.41787318457841</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>183.0492507796781</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31837,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -31847,7 +31849,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,10 +31858,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>175.960367665998</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32318,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963282</v>
       </c>
       <c r="M18" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>301.1823051500301</v>
+        <v>597.1709559744727</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32786,13 +32788,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>243.1729913598529</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>287.96850485185</v>
       </c>
       <c r="L27" t="n">
-        <v>490.5075832355679</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>488.7223436347931</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33679,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,28 +33733,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>459.1396705889915</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33974,28 +33976,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>489.2891832783074</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>237.3557891543625</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>246.9454735174611</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34793,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>303.0719207327586</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35012,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>577.9642335061964</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>316.2323534812614</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,7 +35497,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,10 +35506,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>405.044904796216</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>261.348781916454</v>
       </c>
       <c r="M18" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0482712280117</v>
+        <v>455.0369220524544</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>116.3353646931862</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>150.127065877491</v>
       </c>
       <c r="L27" t="n">
-        <v>351.9532034556937</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36844,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>350.1679638549189</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>320.5852908091173</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,28 +37624,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>357.9474711949741</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>94.75954470991805</v>
       </c>
       <c r="P45" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2697207.700069758</v>
+        <v>2693070.542819607</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>253.4361464794027</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>53.43995086960427</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>52.93403489659756</v>
       </c>
       <c r="E4" t="n">
-        <v>100.5261096075845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>81.39729436674905</v>
+        <v>37.80655536594458</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>92.87962584274347</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>13.44811922207311</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>187.6522591728079</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>280.3804015942624</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>60.74325072283249</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>69.08839254414994</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>191.6227449987296</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>153.0598676525411</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>30.65104903283335</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>68.62151774815511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>26.12116916215743</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>45.97180554614035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>102.1656705247861</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>40.32853379926806</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.2585798692299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>45.36631724422328</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>74.53917159609216</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>186.2017055182992</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>91.66636605273423</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.551232880758</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.551232880758</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="D2" t="n">
-        <v>696.2855342740072</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>527.8767859460534</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>116.8908811564458</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>105.2265349211387</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211387</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190805</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920691</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1831.290404920691</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>1441.151072944879</v>
+        <v>527.8767859460534</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>482.9033490193029</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>777.6069060507746</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P3" t="n">
-        <v>2262.298126874724</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451.6438489729786</v>
+        <v>991.0352421928106</v>
       </c>
       <c r="C4" t="n">
-        <v>451.6438489729786</v>
+        <v>822.0990592649038</v>
       </c>
       <c r="D4" t="n">
-        <v>301.5272095606429</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>199.9856847044969</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U4" t="n">
-        <v>1150.699034738196</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.699034738196</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="W4" t="n">
-        <v>861.2818647012357</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="X4" t="n">
-        <v>633.2923138032183</v>
+        <v>1211.827821336341</v>
       </c>
       <c r="Y4" t="n">
-        <v>633.2923138032183</v>
+        <v>991.0352421928106</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1522.010132800342</v>
+        <v>1249.246750862032</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.010132800342</v>
+        <v>880.2842339216199</v>
       </c>
       <c r="D5" t="n">
-        <v>1163.744434193592</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.25058172385</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2480.119839140813</v>
+        <v>2399.451681163045</v>
       </c>
       <c r="U5" t="n">
-        <v>2226.538778404993</v>
+        <v>2399.451681163045</v>
       </c>
       <c r="V5" t="n">
-        <v>1895.475891061422</v>
+        <v>2399.451681163045</v>
       </c>
       <c r="W5" t="n">
-        <v>1895.475891061422</v>
+        <v>2399.451681163045</v>
       </c>
       <c r="X5" t="n">
-        <v>1522.010132800342</v>
+        <v>2025.985922901965</v>
       </c>
       <c r="Y5" t="n">
-        <v>1522.010132800342</v>
+        <v>1635.846590926153</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145204</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380231</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694948</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434119</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.8936537153462</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C7" t="n">
-        <v>455.9574707874393</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>292.9776840319553</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>145.0645904495622</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1034.531669443603</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1034.531669443603</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>806.5421185455859</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.5421185455859</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1694.732133680699</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C8" t="n">
-        <v>1325.769616740288</v>
+        <v>1859.931962592038</v>
       </c>
       <c r="D8" t="n">
-        <v>967.5039181335374</v>
+        <v>1501.666263985288</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>1115.878011387043</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>704.8921065974357</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.732133680699</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4874,13 +4874,13 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
@@ -4889,22 +4889,22 @@
         <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>815.1145481251085</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.931248730034</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>347.89877828689</v>
+        <v>427.4800176695869</v>
       </c>
       <c r="C10" t="n">
-        <v>347.89877828689</v>
+        <v>427.4800176695869</v>
       </c>
       <c r="D10" t="n">
-        <v>347.89877828689</v>
+        <v>427.4800176695869</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>427.4800176695869</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>280.5900701716765</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>112.6036054799551</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>112.6036054799551</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1048.115628253778</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>978.3293731586772</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>978.3293731586772</v>
+        <v>1057.910612541374</v>
       </c>
       <c r="X10" t="n">
-        <v>750.3398222606598</v>
+        <v>829.9210616433568</v>
       </c>
       <c r="Y10" t="n">
-        <v>529.5472431171297</v>
+        <v>609.1284824998266</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,16 +5032,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2070.54992095362</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1781.474694297818</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1526.790206091931</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1237.37303605497</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1237.37303605497</v>
+        <v>1209.279733667159</v>
       </c>
       <c r="Y13" t="n">
-        <v>1016.58045691144</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2310.602715440587</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2091.001250463528</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1801.926023807726</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1547.241535601839</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1257.824365564879</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1029.834814666861</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>809.0422355233313</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5506,58 +5506,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.578064224546</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2237.723229879451</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2018.121764902392</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.046538246589</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1474.362050040702</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1184.944880003742</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>956.9553291057244</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2150.626378269244</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1861.551151613442</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1606.866663407555</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1317.449493370594</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>208.9886740942263</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>802.9288273958734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>652.8121879835377</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590559</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590559</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.981709809275</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2877.307316025034</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3474.685803651586</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4102.283767206193</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770328</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>803.2707707770328</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>653.154131364697</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>505.2410377823039</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>358.3510902843935</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750803</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072725</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2949.802511644064</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>2949.802511644064</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2799.685872231728</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2651.772778649335</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>2949.802511644064</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3079.453861511889</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2910.517678583983</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2760.401039171647</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2612.487945589254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2465.597998091343</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2465.597998091343</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3999.301626420637</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3709.884456383676</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3481.894905485659</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3261.102326342129</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.140839595365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.204656667458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.088017255123</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2580.17492367273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2580.17492367273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2412.97882438761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467152</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.581883569135</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.789304425605</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2856.288307456496</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4319.895787226933</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.820560571131</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3776.136072365244</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3486.718902328284</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3258.729351430266</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3037.936772286736</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1024.063349920562</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>855.1271669926552</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>705.0105275803195</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>557.0974339979264</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>410.207486500016</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1205.711814750802</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.591198401904</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566572</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.7516311504069</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>25.78270532855865</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>72.64978773649602</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>112.4047682534895</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>40.25407754796423</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>171.4336447811479</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>44.26829212178309</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>125.1956044930008</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.32607348286487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>94.92839560200061</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>65.75554125013173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>31.20374480898909</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>73.85777223953461</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>773498.6533206415</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914271</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914268</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.415891427</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645717.2797520045</v>
+      </c>
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520049</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26426,13 +26426,13 @@
         <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
+        <v>7507.368461719689</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7507.368461719732</v>
+      </c>
+      <c r="G4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7507.368461719669</v>
       </c>
       <c r="H4" t="n">
         <v>7507.368461719667</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683970.0036710816</v>
+        <v>-683970.0036710815</v>
       </c>
       <c r="C6" t="n">
         <v>430781.7799048381</v>
       </c>
       <c r="D6" t="n">
-        <v>430781.779904838</v>
+        <v>430781.7799048378</v>
       </c>
       <c r="E6" t="n">
-        <v>29601.93984183209</v>
+        <v>29254.56058747557</v>
       </c>
       <c r="F6" t="n">
-        <v>537087.3814663779</v>
+        <v>536740.0022120212</v>
       </c>
       <c r="G6" t="n">
-        <v>537087.3814663785</v>
+        <v>536740.0022120212</v>
       </c>
       <c r="H6" t="n">
-        <v>537087.3814663782</v>
+        <v>536740.0022120209</v>
       </c>
       <c r="I6" t="n">
-        <v>537087.3814663779</v>
+        <v>536740.0022120209</v>
       </c>
       <c r="J6" t="n">
-        <v>369482.2036563955</v>
+        <v>369134.8244020385</v>
       </c>
       <c r="K6" t="n">
-        <v>537087.3814663782</v>
+        <v>536740.0022120208</v>
       </c>
       <c r="L6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.0022120214</v>
       </c>
       <c r="M6" t="n">
-        <v>404480.0877374514</v>
+        <v>404132.7084830945</v>
       </c>
       <c r="N6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.002212021</v>
       </c>
       <c r="O6" t="n">
-        <v>537087.381466378</v>
+        <v>536740.0022120213</v>
       </c>
       <c r="P6" t="n">
-        <v>537087.3814663781</v>
+        <v>536740.0022120212</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>128.494223592859</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.26996180286623</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>95.6814381216148</v>
       </c>
       <c r="E4" t="n">
-        <v>45.90785303898467</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>125.2608906134847</v>
+        <v>168.8516296142892</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>52.54142218018778</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>238.6895241017549</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>194.2781108994538</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>131.1673011786916</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>44.05334448106809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>183.0492507796781</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,7 +31852,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31861,7 +31861,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>175.960367665998</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>543.5992845760902</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744727</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>243.1729913598529</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>287.96850485185</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>188.4731159523455</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33736,28 +33736,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>459.1396705889915</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>430.400187030115</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>237.3557891543625</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>373.0365088578703</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>303.0719207327586</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065831</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35257,7 +35257,7 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>522.0158803980275</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35266,16 +35266,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>316.2323534812614</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,7 +35500,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35509,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>405.044904796216</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524544</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>116.3353646931862</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>150.127065877491</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>45.87687150790109</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37384,28 +37384,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>320.5852908091173</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>245.9177694853267</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>291.8458072502408</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>94.75954470991805</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2693070.542819607</v>
+        <v>2694831.073122393</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -664,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>230.0579184406865</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>53.43995086960427</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>52.93403489659756</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>85.45564210299004</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>220.4467562824256</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>37.80655536594458</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>92.87962584274347</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>280.3804015942624</v>
+        <v>208.2474868886328</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>44.18587567974514</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60.74325072283249</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>153.0598676525411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>30.65104903283335</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>34.44192933414612</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>99.97427419833816</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>527.8767859460534</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="C2" t="n">
-        <v>527.8767859460534</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="D2" t="n">
-        <v>527.8767859460534</v>
+        <v>1146.77632891864</v>
       </c>
       <c r="E2" t="n">
-        <v>527.8767859460534</v>
+        <v>760.9880763203955</v>
       </c>
       <c r="F2" t="n">
-        <v>116.8908811564458</v>
+        <v>350.002171530788</v>
       </c>
       <c r="G2" t="n">
-        <v>105.2265349211387</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>105.2265349211387</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218651</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>527.8767859460534</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193029</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>991.0352421928106</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C4" t="n">
-        <v>822.0990592649038</v>
+        <v>837.0793422748035</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>686.9627028624677</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>539.0496092800746</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821642</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1211.827821336341</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y4" t="n">
-        <v>991.0352421928106</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.246750862032</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166252</v>
+        <v>684.90618255198</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>273.9202777623725</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2399.451681163045</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2399.451681163045</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2399.451681163045</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2399.451681163045</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>2025.985922901965</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1635.846590926153</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
@@ -4649,16 +4649,16 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>461.9138669598622</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C7" t="n">
-        <v>292.9776840319553</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D7" t="n">
-        <v>292.9776840319553</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E7" t="n">
-        <v>145.0645904495622</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4761,16 +4761,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.344461831649</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>864.354910933632</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>643.5623317901019</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2228.89447953245</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
-        <v>1859.931962592038</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1501.666263985288</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>1115.878011387043</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>704.8921065974357</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.89447953245</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>815.1145481251085</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1178.376567084329</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1565.661695681274</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>427.4800176695869</v>
+        <v>620.8411572468201</v>
       </c>
       <c r="C10" t="n">
-        <v>427.4800176695869</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D10" t="n">
-        <v>427.4800176695869</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>427.4800176695869</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>280.5900701716765</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G10" t="n">
-        <v>112.6036054799551</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H10" t="n">
-        <v>112.6036054799551</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W10" t="n">
-        <v>1057.910612541374</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X10" t="n">
-        <v>829.9210616433568</v>
+        <v>886.2659340466585</v>
       </c>
       <c r="Y10" t="n">
-        <v>609.1284824998266</v>
+        <v>665.4733549031283</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5062,31 +5062,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625878</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588917</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.279733667159</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
         <v>776.1751066403293</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>414.4022433768874</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>266.4891497944943</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5752,25 +5752,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5846,7 +5846,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,19 +6217,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332386</v>
@@ -6241,22 +6241,22 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>814.4041655335323</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6903,7 +6903,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,10 +7162,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7356,13 +7356,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
         <v>1746.193029533436</v>
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7499,10 +7499,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2171.280006238955</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143855</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>30.36925650589404</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>72.64978773649602</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>114.7699989900979</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.1735436840662</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>773498.6533206414</v>
+        <v>773498.6533206413</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206414</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773498.6533206413</v>
+        <v>773498.6533206415</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914273</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.415891427</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>656833.4158914271</v>
       </c>
-      <c r="D2" t="n">
-        <v>656833.4158914268</v>
-      </c>
       <c r="E2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="F2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.2797520047</v>
       </c>
       <c r="I2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520051</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520047</v>
       </c>
-      <c r="K2" t="n">
-        <v>645717.2797520045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520047</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719689</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719732</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-683970.0036710815</v>
+        <v>-683970.0036710814</v>
       </c>
       <c r="C6" t="n">
-        <v>430781.7799048381</v>
+        <v>430781.7799048379</v>
       </c>
       <c r="D6" t="n">
-        <v>430781.7799048378</v>
+        <v>430781.7799048383</v>
       </c>
       <c r="E6" t="n">
-        <v>29254.56058747557</v>
+        <v>29567.20191639687</v>
       </c>
       <c r="F6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="G6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="H6" t="n">
-        <v>536740.0022120209</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="I6" t="n">
-        <v>536740.0022120209</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="J6" t="n">
-        <v>369134.8244020385</v>
+        <v>369447.4657309601</v>
       </c>
       <c r="K6" t="n">
-        <v>536740.0022120208</v>
+        <v>537052.6435409423</v>
       </c>
       <c r="L6" t="n">
-        <v>536740.0022120214</v>
+        <v>537052.6435409425</v>
       </c>
       <c r="M6" t="n">
-        <v>404132.7084830945</v>
+        <v>404445.3498120155</v>
       </c>
       <c r="N6" t="n">
-        <v>536740.002212021</v>
+        <v>537052.6435409426</v>
       </c>
       <c r="O6" t="n">
-        <v>536740.0022120213</v>
+        <v>537052.6435409428</v>
       </c>
       <c r="P6" t="n">
-        <v>536740.0022120212</v>
+        <v>537052.6435409422</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>181.4897843322674</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>12.26996180286623</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>95.6814381216148</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>80.85095794181414</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>191.1009464905283</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>168.8516296142892</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>52.54142218018778</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>53.81584707847222</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>131.1673011786916</v>
+        <v>203.3002158843212</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>135.6461045021921</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>44.05334448106809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32074,16 +32074,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578703</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>421.566356098768</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0158803980275</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820404</v>
@@ -35266,13 +35266,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,10 +35430,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
